--- a/spliced/walkingToRunning/2023-04-03_17-01-10/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_17-01-10/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.98594284057617</v>
+        <v>10.44645118713379</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.535707473754883</v>
+        <v>-1.072464942932129</v>
       </c>
       <c r="E2" t="n">
-        <v>8.854530334472656</v>
+        <v>-7.741544246673584</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.276309442297315</v>
+        <v>-0.4181592197061701</v>
       </c>
       <c r="G2" t="n">
-        <v>1.367937100267883</v>
+        <v>4.999134939407615</v>
       </c>
       <c r="H2" t="n">
-        <v>1.829167963188405</v>
+        <v>4.467728652686705</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10.44645118713379</v>
+        <v>-12.54131031036377</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.072464942932129</v>
+        <v>-6.995788097381592</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.741544246673584</v>
+        <v>4.960752010345459</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4181592197061701</v>
+        <v>-0.2939812507584775</v>
       </c>
       <c r="G3" t="n">
-        <v>4.999134939407615</v>
+        <v>1.309815360006858</v>
       </c>
       <c r="H3" t="n">
-        <v>4.467728652686705</v>
+        <v>2.089699776373152</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-12.54131031036377</v>
+        <v>1.563988208770752</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.995788097381592</v>
+        <v>-0.6327500343322754</v>
       </c>
       <c r="E4" t="n">
-        <v>4.960752010345459</v>
+        <v>7.09266471862793</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2939812507584775</v>
+        <v>0.6610930461749918</v>
       </c>
       <c r="G4" t="n">
-        <v>1.309815360006858</v>
+        <v>-2.38056925078418</v>
       </c>
       <c r="H4" t="n">
-        <v>2.089699776373152</v>
+        <v>-1.609635165918661</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.563988208770752</v>
+        <v>1.386142730712891</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6327500343322754</v>
+        <v>-3.08348274230957</v>
       </c>
       <c r="E5" t="n">
-        <v>7.09266471862793</v>
+        <v>6.775681018829346</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6610930461749918</v>
+        <v>1.810891748588788</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.38056925078418</v>
+        <v>-1.378563615763306</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.609635165918661</v>
+        <v>-2.978032114349805</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.386142730712891</v>
+        <v>1.111974596977234</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.08348274230957</v>
+        <v>-5.867249965667725</v>
       </c>
       <c r="E6" t="n">
-        <v>6.775681018829346</v>
+        <v>13.13678932189941</v>
       </c>
       <c r="F6" t="n">
-        <v>1.810891748588788</v>
+        <v>2.31189947707626</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.378563615763306</v>
+        <v>-2.220112597830942</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.978032114349805</v>
+        <v>-3.509698769756517</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.111974596977234</v>
+        <v>-4.935175895690918</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.867249965667725</v>
+        <v>8.790708541870117</v>
       </c>
       <c r="E7" t="n">
-        <v>13.13678932189941</v>
+        <v>6.229645729064941</v>
       </c>
       <c r="F7" t="n">
-        <v>2.31189947707626</v>
+        <v>-4.20486067611483</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.220112597830942</v>
+        <v>-2.35995082988918</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.509698769756517</v>
+        <v>3.951543032566025</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.935175895690918</v>
+        <v>16.58664321899414</v>
       </c>
       <c r="D8" t="n">
-        <v>8.790708541870117</v>
+        <v>-65.17784118652344</v>
       </c>
       <c r="E8" t="n">
-        <v>6.229645729064941</v>
+        <v>6.808780193328857</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.20486067611483</v>
+        <v>-6.209334919385752</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.35995082988918</v>
+        <v>-1.759963089060472</v>
       </c>
       <c r="H8" t="n">
-        <v>3.951543032566025</v>
+        <v>10.33535447298917</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16.58664321899414</v>
+        <v>-8.056964874267578</v>
       </c>
       <c r="D9" t="n">
-        <v>-65.17784118652344</v>
+        <v>23.69245338439941</v>
       </c>
       <c r="E9" t="n">
-        <v>6.808780193328857</v>
+        <v>-1.875571012496948</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.209334919385752</v>
+        <v>1.966778721764825</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.759963089060472</v>
+        <v>7.234104103016977</v>
       </c>
       <c r="H9" t="n">
-        <v>10.33535447298917</v>
+        <v>2.021741985160567</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-8.056964874267578</v>
+        <v>-4.308743476867676</v>
       </c>
       <c r="D10" t="n">
-        <v>23.69245338439941</v>
+        <v>2.427361011505127</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.875571012496948</v>
+        <v>6.903748512268066</v>
       </c>
       <c r="F10" t="n">
-        <v>1.966778721764825</v>
+        <v>2.757100457342962</v>
       </c>
       <c r="G10" t="n">
-        <v>7.234104103016977</v>
+        <v>-3.825466089159538</v>
       </c>
       <c r="H10" t="n">
-        <v>2.021741985160567</v>
+        <v>-3.918381726630348</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.308743476867676</v>
+        <v>-2.216989278793335</v>
       </c>
       <c r="D11" t="n">
-        <v>2.427361011505127</v>
+        <v>-25.4277229309082</v>
       </c>
       <c r="E11" t="n">
-        <v>6.903748512268066</v>
+        <v>2.421021461486816</v>
       </c>
       <c r="F11" t="n">
-        <v>2.757100457342962</v>
+        <v>6.505795770716528</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.825466089159538</v>
+        <v>-1.982219981255937</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.918381726630348</v>
+        <v>-9.447731205236206</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.216989278793335</v>
+        <v>-0.3425538539886474</v>
       </c>
       <c r="D12" t="n">
-        <v>-25.4277229309082</v>
+        <v>-11.7038745880127</v>
       </c>
       <c r="E12" t="n">
-        <v>2.421021461486816</v>
+        <v>31.56782150268555</v>
       </c>
       <c r="F12" t="n">
-        <v>6.505795770716528</v>
+        <v>1.019708882982564</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.982219981255937</v>
+        <v>-2.124502529607678</v>
       </c>
       <c r="H12" t="n">
-        <v>-9.447731205236206</v>
+        <v>-4.567799980673901</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3425538539886474</v>
+        <v>-1.816783547401428</v>
       </c>
       <c r="D13" t="n">
-        <v>-11.7038745880127</v>
+        <v>8.313332557678223</v>
       </c>
       <c r="E13" t="n">
-        <v>31.56782150268555</v>
+        <v>9.763429641723633</v>
       </c>
       <c r="F13" t="n">
-        <v>1.019708882982564</v>
+        <v>-3.90443126063479</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.124502529607678</v>
+        <v>-6.289577069683729</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.567799980673901</v>
+        <v>0.08947662911672927</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.816783547401428</v>
+        <v>2.05627965927124</v>
       </c>
       <c r="D14" t="n">
-        <v>8.313332557678223</v>
+        <v>-54.87781143188477</v>
       </c>
       <c r="E14" t="n">
-        <v>9.763429641723633</v>
+        <v>29.65373039245605</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.90443126063479</v>
+        <v>-4.737582387211194</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.289577069683729</v>
+        <v>1.679735990328154</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08947662911672927</v>
+        <v>5.945494293052519</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.05627965927124</v>
+        <v>-26.46129989624023</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.87781143188477</v>
+        <v>36.53782653808594</v>
       </c>
       <c r="E15" t="n">
-        <v>29.65373039245605</v>
+        <v>2.705925941467285</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.737582387211194</v>
+        <v>-2.958322148456745</v>
       </c>
       <c r="G15" t="n">
-        <v>1.679735990328154</v>
+        <v>5.940943116339433</v>
       </c>
       <c r="H15" t="n">
-        <v>5.945494293052519</v>
+        <v>1.412405640165503</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-26.46129989624023</v>
+        <v>-6.459963798522949</v>
       </c>
       <c r="D16" t="n">
-        <v>36.53782653808594</v>
+        <v>9.631237030029297</v>
       </c>
       <c r="E16" t="n">
-        <v>2.705925941467285</v>
+        <v>-4.527087211608887</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.958322148456745</v>
+        <v>-3.080484191948098</v>
       </c>
       <c r="G16" t="n">
-        <v>5.940943116339433</v>
+        <v>14.34931452920528</v>
       </c>
       <c r="H16" t="n">
-        <v>1.412405640165503</v>
+        <v>-6.689891151178712</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-6.459963798522949</v>
+        <v>-2.323664665222168</v>
       </c>
       <c r="D17" t="n">
-        <v>9.631237030029297</v>
+        <v>-6.97331714630127</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.527087211608887</v>
+        <v>3.054933786392212</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.080484191948098</v>
+        <v>3.206049725274078</v>
       </c>
       <c r="G17" t="n">
-        <v>14.34931452920528</v>
+        <v>-2.906924434911418</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.689891151178712</v>
+        <v>-3.371373475154916</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-2.323664665222168</v>
+        <v>23.92743682861328</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.97331714630127</v>
+        <v>6.633898258209229</v>
       </c>
       <c r="E18" t="n">
-        <v>3.054933786392212</v>
+        <v>20.45568084716797</v>
       </c>
       <c r="F18" t="n">
-        <v>3.206049725274078</v>
+        <v>1.706316604792587</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.906924434911418</v>
+        <v>-3.271737626170626</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.371373475154916</v>
+        <v>-8.0454896521347</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.92743682861328</v>
+        <v>12.88255214691162</v>
       </c>
       <c r="D19" t="n">
-        <v>6.633898258209229</v>
+        <v>13.76539325714111</v>
       </c>
       <c r="E19" t="n">
-        <v>20.45568084716797</v>
+        <v>5.36094856262207</v>
       </c>
       <c r="F19" t="n">
-        <v>1.706316604792587</v>
+        <v>-3.738767730855505</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.271737626170626</v>
+        <v>0.06012086237769707</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.0454896521347</v>
+        <v>3.632486434740414</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12.88255214691162</v>
+        <v>-39.15726470947266</v>
       </c>
       <c r="D20" t="n">
-        <v>13.76539325714111</v>
+        <v>-50.35159301757812</v>
       </c>
       <c r="E20" t="n">
-        <v>5.36094856262207</v>
+        <v>59.05854797363281</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.738767730855505</v>
+        <v>-3.090678747569279</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06012086237769707</v>
+        <v>1.963554282054647</v>
       </c>
       <c r="H20" t="n">
-        <v>3.632486434740414</v>
+        <v>5.732710114149367</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-39.15726470947266</v>
+        <v>-29.70075225830078</v>
       </c>
       <c r="D21" t="n">
-        <v>-50.35159301757812</v>
+        <v>18.98210144042969</v>
       </c>
       <c r="E21" t="n">
-        <v>59.05854797363281</v>
+        <v>-6.946440696716309</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.090678747569279</v>
+        <v>-3.92490029335021</v>
       </c>
       <c r="G21" t="n">
-        <v>1.963554282054647</v>
+        <v>8.097008705139087</v>
       </c>
       <c r="H21" t="n">
-        <v>5.732710114149367</v>
+        <v>-0.6271078586577614</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.437598705291748</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.676052093505859</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-6.736623287200928</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.013831214370013</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11.75312601071651</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-9.512279387946442</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36.55035400390625</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.483262062072754</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-3.189533472061157</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.26375397343502</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.259433144720926</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-2.911592367653529</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>25.18490791320801</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10.66421031951904</v>
+      </c>
+      <c r="E24" t="n">
+        <v>36.16248321533203</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.293022926722733</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-6.641965772504008</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-9.101227296847053</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>11.78367233276367</v>
+      </c>
+      <c r="D25" t="n">
+        <v>19.32002067565918</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14.97337532043457</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.6729963912028092</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-6.046104440065187</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.590652748803134</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-10.2064151763916</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-54.4849967956543</v>
+      </c>
+      <c r="E26" t="n">
+        <v>45.01205825805664</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-4.304234186622589</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.124698318053637</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.37724533482133</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.304520606994629</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.910325050354004</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-39.37523651123047</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.525356531143185</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.932811015120178</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.6847266883493761</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10.93332672119141</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.53017807006836</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.883467674255371</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02450294917989604</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11.26465672644501</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-6.819475414596996</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>23.18131637573243</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-33.343994140625</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-4.427485942840576</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.655811092563884</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-3.081682441390621</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.3115755630151993</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>17.88149261474609</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-17.56607437133789</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-2.040470600128174</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.203615091671459</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2.449124443196801</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-8.744278280116706</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-4.381585597991943</v>
+      </c>
+      <c r="D31" t="n">
+        <v>13.65173721313477</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.552346229553223</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-2.318640726749061</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-4.338136873512635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.472857043007876</v>
       </c>
     </row>
   </sheetData>
